--- a/entregaveis-grupo/documentacao/Planilha de riscos.xlsx
+++ b/entregaveis-grupo/documentacao/Planilha de riscos.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29421"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F573E74F-C03D-4579-96AC-FF013C71F106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo\Documents\FACULDADE\SPRINT2\WineTech\entregaveis-grupo\documentacao\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C109CF2E-36AA-46C2-9CBF-B5133B806E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -26,12 +31,15 @@
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="53">
   <si>
     <t>ID</t>
   </si>
@@ -63,9 +71,6 @@
     <t>alto</t>
   </si>
   <si>
-    <t>1-</t>
-  </si>
-  <si>
     <t>Falha de sensor (não coleta dados)</t>
   </si>
   <si>
@@ -84,9 +89,6 @@
     <t>baixo</t>
   </si>
   <si>
-    <t>2-</t>
-  </si>
-  <si>
     <t>Perda de conexão com a internet nos barris</t>
   </si>
   <si>
@@ -99,9 +101,6 @@
     <t>1 (Baixa)</t>
   </si>
   <si>
-    <t>3-</t>
-  </si>
-  <si>
     <t>Dashboard fora do ar (servidor instável)</t>
   </si>
   <si>
@@ -117,9 +116,6 @@
     <t>3 (Alto)</t>
   </si>
   <si>
-    <t>4-</t>
-  </si>
-  <si>
     <t>Atraso na entrega/manutenção dos sensores</t>
   </si>
   <si>
@@ -129,33 +125,18 @@
     <t>Impacto</t>
   </si>
   <si>
-    <t>5-</t>
-  </si>
-  <si>
     <t>Cliente não entende como usar a dashboard</t>
   </si>
   <si>
     <t>Criação de dashboard intuitiva;</t>
   </si>
   <si>
-    <t>6-</t>
-  </si>
-  <si>
     <t>Mudança ambiental inesperada (ex: temperatura da adega varia rápido)</t>
   </si>
   <si>
-    <t xml:space="preserve">- </t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Grupo 11</t>
   </si>
   <si>
-    <t>7-</t>
-  </si>
-  <si>
     <t>Vazamento de dados dos clientes</t>
   </si>
   <si>
@@ -165,9 +146,6 @@
     <t>Otavio</t>
   </si>
   <si>
-    <t>8-</t>
-  </si>
-  <si>
     <t>Roubo ou dano físico dos sensores</t>
   </si>
   <si>
@@ -177,9 +155,6 @@
     <t>Rafael</t>
   </si>
   <si>
-    <t>9-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aumento súbito no custo de componentes </t>
   </si>
   <si>
@@ -189,9 +164,6 @@
     <t>Juan</t>
   </si>
   <si>
-    <t>10-</t>
-  </si>
-  <si>
     <t>Lei seca no brasil, acarretando no fechamento de adegas</t>
   </si>
   <si>
@@ -201,9 +173,6 @@
     <t>Marlon</t>
   </si>
   <si>
-    <t>11 -</t>
-  </si>
-  <si>
     <t xml:space="preserve">Atraso nas entregas das tasks </t>
   </si>
   <si>
@@ -213,9 +182,6 @@
     <t>Yuri</t>
   </si>
   <si>
-    <t>12 -</t>
-  </si>
-  <si>
     <t>Um membro da equipe sair</t>
   </si>
   <si>
@@ -223,25 +189,28 @@
   </si>
   <si>
     <t>Leonardo</t>
+  </si>
+  <si>
+    <t>Legenda</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Orientar o cliente sobre o controle de temperatura</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <charset val="1"/>
     </font>
     <font>
       <b/>
@@ -251,8 +220,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -289,8 +281,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -298,25 +302,154 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -659,407 +792,438 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A7:M22"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" customWidth="1"/>
-    <col min="8" max="8" width="63.7109375" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" customWidth="1"/>
-    <col min="13" max="13" width="69.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" customWidth="1"/>
+    <col min="3" max="3" width="7.5546875" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" customWidth="1"/>
+    <col min="8" max="8" width="63.6640625" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" customWidth="1"/>
+    <col min="11" max="11" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.44140625" customWidth="1"/>
+    <col min="13" max="13" width="69.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:13">
-      <c r="G7" s="9" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="23"/>
+      <c r="G9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I7" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="J7" s="9" t="s">
+      <c r="I9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="L9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="M9" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
-      <c r="B8" s="8" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G10" s="10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I10" s="3">
+        <v>2</v>
+      </c>
+      <c r="J10" s="3">
+        <v>3</v>
+      </c>
+      <c r="K10" s="3">
+        <v>6</v>
+      </c>
+      <c r="L10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="4">
-        <v>2</v>
-      </c>
-      <c r="J8" s="4">
+      <c r="M10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="16"/>
+      <c r="B11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="10">
+        <v>2</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="3">
         <v>3</v>
       </c>
-      <c r="K8" s="4">
+      <c r="J11" s="3">
+        <v>2</v>
+      </c>
+      <c r="K11" s="3">
         <v>6</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="L11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="16"/>
+      <c r="B12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="10">
+        <v>3</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="3">
+        <v>2</v>
+      </c>
+      <c r="J12" s="3">
+        <v>3</v>
+      </c>
+      <c r="K12" s="3">
+        <v>6</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="16"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="10">
+        <v>4</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="3">
+        <v>1</v>
+      </c>
+      <c r="J13" s="3">
+        <v>2</v>
+      </c>
+      <c r="K13" s="3">
+        <v>2</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="17"/>
+      <c r="B14" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="20"/>
+      <c r="G14" s="10">
+        <v>5</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="3">
+        <v>1</v>
+      </c>
+      <c r="J14" s="3">
+        <v>1</v>
+      </c>
+      <c r="K14" s="3">
+        <v>1</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G15" s="10">
+        <v>6</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="3">
+        <v>2</v>
+      </c>
+      <c r="J15" s="3">
+        <v>2</v>
+      </c>
+      <c r="K15" s="3">
+        <v>4</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G16" s="10">
+        <v>7</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" s="3">
+        <v>1</v>
+      </c>
+      <c r="J16" s="3">
+        <v>3</v>
+      </c>
+      <c r="K16" s="3">
+        <v>3</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="G17" s="10">
+        <v>8</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1</v>
+      </c>
+      <c r="J17" s="3">
+        <v>2</v>
+      </c>
+      <c r="K17" s="3">
+        <v>2</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="G18" s="10">
+        <v>9</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" s="3">
+        <v>2</v>
+      </c>
+      <c r="J18" s="3">
+        <v>3</v>
+      </c>
+      <c r="K18" s="3">
+        <v>6</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="G19" s="10">
+        <v>10</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="3">
+        <v>1</v>
+      </c>
+      <c r="J19" s="3">
+        <v>2</v>
+      </c>
+      <c r="K19" s="3">
+        <v>2</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="G20" s="10">
+        <v>11</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I20" s="3">
+        <v>3</v>
+      </c>
+      <c r="J20" s="3">
+        <v>2</v>
+      </c>
+      <c r="K20" s="3">
+        <v>6</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="G21" s="10">
         <v>12</v>
       </c>
-      <c r="M8" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="4">
+      <c r="H21" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" s="3">
+        <v>1</v>
+      </c>
+      <c r="J21" s="3">
         <v>3</v>
       </c>
-      <c r="J9" s="4">
-        <v>2</v>
-      </c>
-      <c r="K9" s="4">
-        <v>6</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="B10" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="4">
-        <v>2</v>
-      </c>
-      <c r="J10" s="4">
+      <c r="K21" s="3">
         <v>3</v>
       </c>
-      <c r="K10" s="4">
-        <v>6</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="C11" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" s="4">
-        <v>1</v>
-      </c>
-      <c r="J11" s="4">
-        <v>2</v>
-      </c>
-      <c r="K11" s="4">
-        <v>2</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="D12" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I12" s="4">
-        <v>1</v>
-      </c>
-      <c r="J12" s="4">
-        <v>1</v>
-      </c>
-      <c r="K12" s="4">
-        <v>1</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="G13" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I13" s="4">
-        <v>2</v>
-      </c>
-      <c r="J13" s="4">
-        <v>2</v>
-      </c>
-      <c r="K13" s="4">
-        <v>4</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I14" s="4">
-        <v>1</v>
-      </c>
-      <c r="J14" s="4">
-        <v>3</v>
-      </c>
-      <c r="K14" s="4">
-        <v>3</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I15" s="4">
-        <v>1</v>
-      </c>
-      <c r="J15" s="4">
-        <v>2</v>
-      </c>
-      <c r="K15" s="4">
-        <v>2</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G16" s="4" t="s">
+      <c r="L21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M21" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I16" s="4">
-        <v>2</v>
-      </c>
-      <c r="J16" s="4">
-        <v>3</v>
-      </c>
-      <c r="K16" s="4">
-        <v>6</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="4" t="s">
+    </row>
+    <row r="25" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F25" t="s">
         <v>51</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I17" s="4">
-        <v>1</v>
-      </c>
-      <c r="J17" s="4">
-        <v>2</v>
-      </c>
-      <c r="K17" s="4">
-        <v>2</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I18" s="4">
-        <v>3</v>
-      </c>
-      <c r="J18" s="4">
-        <v>2</v>
-      </c>
-      <c r="K18" s="4">
-        <v>6</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I19" s="4">
-        <v>1</v>
-      </c>
-      <c r="J19" s="4">
-        <v>3</v>
-      </c>
-      <c r="K19" s="4">
-        <v>3</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="G22" s="4"/>
+      <c r="H25" s="14"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="A9:E9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>